--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.8312</v>
+        <v>0.01873166666666667</v>
       </c>
       <c r="H2">
-        <v>1.6624</v>
+        <v>0.056195</v>
       </c>
       <c r="I2">
-        <v>0.3272630345142022</v>
+        <v>0.01714827236381741</v>
       </c>
       <c r="J2">
-        <v>0.2675867375230682</v>
+        <v>0.0200504588645364</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05747633333333333</v>
+        <v>0.3282236666666666</v>
       </c>
       <c r="N2">
-        <v>0.172429</v>
+        <v>0.984671</v>
       </c>
       <c r="O2">
-        <v>0.1219372312740439</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="P2">
-        <v>0.1219372312740439</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="Q2">
-        <v>0.04777432826666667</v>
+        <v>0.00614817631611111</v>
       </c>
       <c r="R2">
-        <v>0.2866459696</v>
+        <v>0.055333586845</v>
       </c>
       <c r="S2">
-        <v>0.03990554832700368</v>
+        <v>0.002725448832241881</v>
       </c>
       <c r="T2">
-        <v>0.03262878589921725</v>
+        <v>0.0031867058406168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.8312</v>
+        <v>0.01873166666666667</v>
       </c>
       <c r="H3">
-        <v>1.6624</v>
+        <v>0.056195</v>
       </c>
       <c r="I3">
-        <v>0.3272630345142022</v>
+        <v>0.01714827236381741</v>
       </c>
       <c r="J3">
-        <v>0.2675867375230682</v>
+        <v>0.0200504588645364</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,42 +620,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4138836666666667</v>
+        <v>1.716416</v>
       </c>
       <c r="N3">
-        <v>1.241651</v>
+        <v>5.149248</v>
       </c>
       <c r="O3">
-        <v>0.8780627687259561</v>
+        <v>0.8311326085767012</v>
       </c>
       <c r="P3">
-        <v>0.8780627687259561</v>
+        <v>0.8311326085767011</v>
       </c>
       <c r="Q3">
-        <v>0.3440201037333334</v>
+        <v>0.03215133237333333</v>
       </c>
       <c r="R3">
-        <v>2.0641206224</v>
+        <v>0.28936199136</v>
       </c>
       <c r="S3">
-        <v>0.2873574861871986</v>
+        <v>0.01425248834232331</v>
       </c>
       <c r="T3">
-        <v>0.234957951623851</v>
+        <v>0.01666459017924198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +670,10 @@
         <v>0.056195</v>
       </c>
       <c r="I4">
-        <v>0.007375098742591272</v>
+        <v>0.01714827236381741</v>
       </c>
       <c r="J4">
-        <v>0.009045378197250251</v>
+        <v>0.0200504588645364</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05747633333333333</v>
+        <v>0.02051333333333333</v>
       </c>
       <c r="N4">
-        <v>0.172429</v>
+        <v>0.06154</v>
       </c>
       <c r="O4">
-        <v>0.1219372312740439</v>
+        <v>0.009933081632854</v>
       </c>
       <c r="P4">
-        <v>0.1219372312740439</v>
+        <v>0.009933081632853998</v>
       </c>
       <c r="Q4">
-        <v>0.001076627517222222</v>
+        <v>0.0003842489222222222</v>
       </c>
       <c r="R4">
-        <v>0.009689647655</v>
+        <v>0.0034582403</v>
       </c>
       <c r="S4">
-        <v>0.0008992991210442621</v>
+        <v>0.0001703351892522125</v>
       </c>
       <c r="T4">
-        <v>0.001102968373199298</v>
+        <v>0.0001991628446776211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +711,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01873166666666667</v>
+        <v>0.4743275</v>
       </c>
       <c r="H5">
-        <v>0.056195</v>
+        <v>0.948655</v>
       </c>
       <c r="I5">
-        <v>0.007375098742591272</v>
+        <v>0.4342324313363431</v>
       </c>
       <c r="J5">
-        <v>0.009045378197250251</v>
+        <v>0.3384815028763551</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,42 +744,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4138836666666667</v>
+        <v>0.3282236666666666</v>
       </c>
       <c r="N5">
-        <v>1.241651</v>
+        <v>0.984671</v>
       </c>
       <c r="O5">
-        <v>0.8780627687259561</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="P5">
-        <v>0.8780627687259561</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="Q5">
-        <v>0.007752730882777779</v>
+        <v>0.1556855112508333</v>
       </c>
       <c r="R5">
-        <v>0.069774577945</v>
+        <v>0.934113067505</v>
       </c>
       <c r="S5">
-        <v>0.006475799621547009</v>
+        <v>0.06901443176306847</v>
       </c>
       <c r="T5">
-        <v>0.007942409824050953</v>
+        <v>0.05379632403648599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,60 +788,60 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.575794</v>
+        <v>0.4743275</v>
       </c>
       <c r="H6">
-        <v>1.151588</v>
+        <v>0.948655</v>
       </c>
       <c r="I6">
-        <v>0.226703671432953</v>
+        <v>0.4342324313363431</v>
       </c>
       <c r="J6">
-        <v>0.1853643382403243</v>
+        <v>0.3384815028763551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05747633333333333</v>
+        <v>1.716416</v>
       </c>
       <c r="N6">
-        <v>0.172429</v>
+        <v>5.149248</v>
       </c>
       <c r="O6">
-        <v>0.1219372312740439</v>
+        <v>0.8311326085767012</v>
       </c>
       <c r="P6">
-        <v>0.1219372312740439</v>
+        <v>0.8311326085767011</v>
       </c>
       <c r="Q6">
-        <v>0.03309452787533333</v>
+        <v>0.81414331024</v>
       </c>
       <c r="R6">
-        <v>0.198567167252</v>
+        <v>4.88485986144</v>
       </c>
       <c r="S6">
-        <v>0.02764361801419485</v>
+        <v>0.3609047333851782</v>
       </c>
       <c r="T6">
-        <v>0.02260281418197052</v>
+        <v>0.2813230144405872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,60 +850,60 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.575794</v>
+        <v>0.4743275</v>
       </c>
       <c r="H7">
-        <v>1.151588</v>
+        <v>0.948655</v>
       </c>
       <c r="I7">
-        <v>0.226703671432953</v>
+        <v>0.4342324313363431</v>
       </c>
       <c r="J7">
-        <v>0.1853643382403243</v>
+        <v>0.3384815028763551</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4138836666666667</v>
+        <v>0.02051333333333333</v>
       </c>
       <c r="N7">
-        <v>1.241651</v>
+        <v>0.06154</v>
       </c>
       <c r="O7">
-        <v>0.8780627687259561</v>
+        <v>0.009933081632854</v>
       </c>
       <c r="P7">
-        <v>0.8780627687259561</v>
+        <v>0.009933081632853998</v>
       </c>
       <c r="Q7">
-        <v>0.2383117319646667</v>
+        <v>0.009730038116666666</v>
       </c>
       <c r="R7">
-        <v>1.429870391788</v>
+        <v>0.0583802287</v>
       </c>
       <c r="S7">
-        <v>0.1990600534187582</v>
+        <v>0.004313266188096566</v>
       </c>
       <c r="T7">
-        <v>0.1627615240583538</v>
+        <v>0.00336216439928194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,60 +912,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4309976666666667</v>
+        <v>0.4343753333333333</v>
       </c>
       <c r="H8">
-        <v>1.292993</v>
+        <v>1.303126</v>
       </c>
       <c r="I8">
-        <v>0.1696939416047569</v>
+        <v>0.3976574352232747</v>
       </c>
       <c r="J8">
-        <v>0.2081254683049594</v>
+        <v>0.4649572783754401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.05747633333333333</v>
+        <v>0.3282236666666666</v>
       </c>
       <c r="N8">
-        <v>0.172429</v>
+        <v>0.984671</v>
       </c>
       <c r="O8">
-        <v>0.1219372312740439</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="P8">
-        <v>0.1219372312740439</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="Q8">
-        <v>0.02477216555522222</v>
+        <v>0.1425722646162222</v>
       </c>
       <c r="R8">
-        <v>0.222949489997</v>
+        <v>1.283150381546</v>
       </c>
       <c r="S8">
-        <v>0.02069200940326334</v>
+        <v>0.06320141000024973</v>
       </c>
       <c r="T8">
-        <v>0.02537824336272053</v>
+        <v>0.07389766412064433</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4309976666666667</v>
+        <v>0.4343753333333333</v>
       </c>
       <c r="H9">
-        <v>1.292993</v>
+        <v>1.303126</v>
       </c>
       <c r="I9">
-        <v>0.1696939416047569</v>
+        <v>0.3976574352232747</v>
       </c>
       <c r="J9">
-        <v>0.2081254683049594</v>
+        <v>0.4649572783754401</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,42 +992,42 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4138836666666667</v>
+        <v>1.716416</v>
       </c>
       <c r="N9">
-        <v>1.241651</v>
+        <v>5.149248</v>
       </c>
       <c r="O9">
-        <v>0.8780627687259561</v>
+        <v>0.8311326085767012</v>
       </c>
       <c r="P9">
-        <v>0.8780627687259561</v>
+        <v>0.8311326085767011</v>
       </c>
       <c r="Q9">
-        <v>0.1783828946047778</v>
+        <v>0.7455687721386667</v>
       </c>
       <c r="R9">
-        <v>1.605446051443</v>
+        <v>6.710118949248</v>
       </c>
       <c r="S9">
-        <v>0.1490019322014936</v>
+        <v>0.3305060614570409</v>
       </c>
       <c r="T9">
-        <v>0.1827472249422389</v>
+        <v>0.3864411556529029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.6831296666666667</v>
+        <v>0.4343753333333333</v>
       </c>
       <c r="H10">
-        <v>2.049389</v>
+        <v>1.303126</v>
       </c>
       <c r="I10">
-        <v>0.2689642537054966</v>
+        <v>0.3976574352232747</v>
       </c>
       <c r="J10">
-        <v>0.329878077734398</v>
+        <v>0.4649572783754401</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,60 +1054,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05747633333333333</v>
+        <v>0.02051333333333333</v>
       </c>
       <c r="N10">
-        <v>0.172429</v>
+        <v>0.06154</v>
       </c>
       <c r="O10">
-        <v>0.1219372312740439</v>
+        <v>0.009933081632854</v>
       </c>
       <c r="P10">
-        <v>0.1219372312740439</v>
+        <v>0.009933081632853998</v>
       </c>
       <c r="Q10">
-        <v>0.03926378843122223</v>
+        <v>0.008910486004444444</v>
       </c>
       <c r="R10">
-        <v>0.353374095881</v>
+        <v>0.08019437404</v>
       </c>
       <c r="S10">
-        <v>0.03279675640853776</v>
+        <v>0.003949963765984139</v>
       </c>
       <c r="T10">
-        <v>0.04022441945693632</v>
+        <v>0.004618458601892868</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.6831296666666667</v>
+        <v>0.164901</v>
       </c>
       <c r="H11">
-        <v>2.049389</v>
+        <v>0.494703</v>
       </c>
       <c r="I11">
-        <v>0.2689642537054966</v>
+        <v>0.1509618610765648</v>
       </c>
       <c r="J11">
-        <v>0.329878077734398</v>
+        <v>0.1765107598836685</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1116,152 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4138836666666667</v>
+        <v>0.3282236666666666</v>
       </c>
       <c r="N11">
-        <v>1.241651</v>
+        <v>0.984671</v>
       </c>
       <c r="O11">
-        <v>0.8780627687259561</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="P11">
-        <v>0.8780627687259561</v>
+        <v>0.1589343097904449</v>
       </c>
       <c r="Q11">
-        <v>0.2827362112487778</v>
+        <v>0.05412441085699999</v>
       </c>
       <c r="R11">
-        <v>2.544625901239</v>
+        <v>0.487119697713</v>
       </c>
       <c r="S11">
-        <v>0.2361674972969589</v>
+        <v>0.02399301919488487</v>
       </c>
       <c r="T11">
-        <v>0.2896536582774616</v>
+        <v>0.0280536157926978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.164901</v>
+      </c>
+      <c r="H12">
+        <v>0.494703</v>
+      </c>
+      <c r="I12">
+        <v>0.1509618610765648</v>
+      </c>
+      <c r="J12">
+        <v>0.1765107598836685</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.716416</v>
+      </c>
+      <c r="N12">
+        <v>5.149248</v>
+      </c>
+      <c r="O12">
+        <v>0.8311326085767012</v>
+      </c>
+      <c r="P12">
+        <v>0.8311326085767011</v>
+      </c>
+      <c r="Q12">
+        <v>0.283038714816</v>
+      </c>
+      <c r="R12">
+        <v>2.547348433344</v>
+      </c>
+      <c r="S12">
+        <v>0.1254693253921589</v>
+      </c>
+      <c r="T12">
+        <v>0.1467038483039691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.164901</v>
+      </c>
+      <c r="H13">
+        <v>0.494703</v>
+      </c>
+      <c r="I13">
+        <v>0.1509618610765648</v>
+      </c>
+      <c r="J13">
+        <v>0.1765107598836685</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.02051333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.06154</v>
+      </c>
+      <c r="O13">
+        <v>0.009933081632854</v>
+      </c>
+      <c r="P13">
+        <v>0.009933081632853998</v>
+      </c>
+      <c r="Q13">
+        <v>0.003382669179999999</v>
+      </c>
+      <c r="R13">
+        <v>0.03044402262</v>
+      </c>
+      <c r="S13">
+        <v>0.001499516489521083</v>
+      </c>
+      <c r="T13">
+        <v>0.00175329578700157</v>
       </c>
     </row>
   </sheetData>
